--- a/ValueSet-QstationsVS.xlsx
+++ b/ValueSet-QstationsVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-11T14:30:36-05:00</t>
+    <t>2024-01-05T10:12:51-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
